--- a/biology/Zoologie/Endoxyla_cinereus/Endoxyla_cinereus.xlsx
+++ b/biology/Zoologie/Endoxyla_cinereus/Endoxyla_cinereus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Teigne des bois géante
-Endoxyla cinereus, la Teigne des bois géante, est une espèce de hétérocères (papillons de nuit) de la famille des Cossidae[1]. On la trouve en Australie (Queensland, Nouvelle-Galles du Sud) et en Nouvelle-Zélande[2]. 
+Endoxyla cinereus, la Teigne des bois géante, est une espèce de hétérocères (papillons de nuit) de la famille des Cossidae. On la trouve en Australie (Queensland, Nouvelle-Galles du Sud) et en Nouvelle-Zélande. 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Endoxyla cinereus a été décrite pour la première fois en 1890 par l'entomologiste polonais Johann Tepper (d) (1841-1923) sous le protonyme Cossus cinereus[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Endoxyla cinereus a été décrite pour la première fois en 1890 par l'entomologiste polonais Johann Tepper (d) (1841-1923) sous le protonyme Cossus cinereus.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est le papillon de nuit le plus lourd du monde, pesant jusqu'à 30 g[4], et certainement le plus grand. Son envergure est d'environ 23 à 25 cm. Un motif variable de gris clair et foncé ou de brun apparaît sur les ailes de cette espèce de papillon.
-Les larves creusent dans les troncs des arbres du genre Eucalyptus. La nymphose a lieu dans le tunnel larvaire[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est le papillon de nuit le plus lourd du monde, pesant jusqu'à 30 g, et certainement le plus grand. Son envergure est d'environ 23 à 25 cm. Un motif variable de gris clair et foncé ou de brun apparaît sur les ailes de cette espèce de papillon.
+Les larves creusent dans les troncs des arbres du genre Eucalyptus. La nymphose a lieu dans le tunnel larvaire.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une rare observation contemporaine de ce papillon de nuit, dans une école en Australie, a été remarquée et choisie par une rédactrice en chef, et épinglée parmi les gros titres du New York Times le 8 mai 2021[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une rare observation contemporaine de ce papillon de nuit, dans une école en Australie, a été remarquée et choisie par une rédactrice en chef, et épinglée parmi les gros titres du New York Times le 8 mai 2021.
 </t>
         </is>
       </c>
